--- a/AnalyseDossier/Kostenberekening.xlsx
+++ b/AnalyseDossier/Kostenberekening.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordy\Documents\Howest\2TI\Semester 3\Project\GeometryWars\AnalyseDossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -408,7 +408,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="170" formatCode="&quot;€&quot;\ #,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.0000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -623,13 +623,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -640,28 +634,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -675,20 +648,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -697,39 +658,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -739,7 +670,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,18 +679,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -772,6 +691,87 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -968,11 +968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511607584"/>
-        <c:axId val="511606800"/>
+        <c:axId val="397205136"/>
+        <c:axId val="397206704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="511607584"/>
+        <c:axId val="397205136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511606800"/>
+        <c:crossAx val="397206704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +1022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="511606800"/>
+        <c:axId val="397206704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511607584"/>
+        <c:crossAx val="397205136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1702,15 +1702,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>906780</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1997,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2016,68 +2016,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
     </row>
     <row r="2" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G3" s="4"/>
@@ -2100,7 +2100,7 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2126,12 +2126,12 @@
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>5</v>
@@ -2166,10 +2166,10 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2192,14 +2192,14 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="26">
+      <c r="F7" s="17">
         <v>50</v>
       </c>
       <c r="G7" s="4"/>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="26">
+      <c r="N7" s="17">
         <f>F7*H7*K7</f>
         <v>7000</v>
       </c>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="9">
+      <c r="S7" s="7">
         <f>P7*N7</f>
         <v>24500</v>
       </c>
@@ -2234,14 +2234,14 @@
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="26">
+      <c r="F8" s="17">
         <v>80</v>
       </c>
       <c r="G8" s="4"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="26">
+      <c r="N8" s="17">
         <f t="shared" ref="N8:N10" si="0">F8*H8*K8</f>
         <v>11200</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="9">
+      <c r="S8" s="7">
         <f t="shared" ref="S8:S10" si="1">P8*N8</f>
         <v>39200</v>
       </c>
@@ -2276,14 +2276,14 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="26">
+      <c r="F9" s="17">
         <v>50</v>
       </c>
       <c r="G9" s="4"/>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="26">
+      <c r="N9" s="17">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="9">
+      <c r="S9" s="7">
         <f t="shared" si="1"/>
         <v>24500</v>
       </c>
@@ -2318,14 +2318,14 @@
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="26">
+      <c r="F10" s="17">
         <v>80</v>
       </c>
       <c r="G10" s="4"/>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="26">
+      <c r="N10" s="17">
         <f t="shared" si="0"/>
         <v>11200</v>
       </c>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="9">
+      <c r="S10" s="7">
         <f t="shared" si="1"/>
         <v>39200</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2386,45 +2386,45 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="12" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="13">
+      <c r="R12" s="10"/>
+      <c r="S12" s="11">
         <f>SUM(S7:S10)</f>
         <v>127400</v>
       </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="55" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G13" s="4"/>
@@ -2447,7 +2447,7 @@
       <c r="X13" s="4"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2465,22 +2465,22 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="36" t="s">
+      <c r="S14" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="T14" s="36"/>
+      <c r="T14" s="50"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
         <v>15</v>
@@ -2503,18 +2503,18 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2529,34 +2529,34 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>299</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="26">
+      <c r="H17" s="17">
         <v>1799</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="26">
+      <c r="J17" s="17">
         <v>539</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="26">
+      <c r="L17" s="17">
         <f>'Keuze extralegale voordelen'!$F$33*12</f>
         <v>240</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="9">
+      <c r="S17" s="7">
         <f>SUM(F17:R17)</f>
         <v>2877</v>
       </c>
@@ -2577,24 +2577,24 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>739</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="26">
+      <c r="H18" s="17">
         <v>1699</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="26"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="26">
+      <c r="L18" s="17">
         <f>'Keuze extralegale voordelen'!$F$33*12</f>
         <v>240</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="9">
+      <c r="S18" s="7">
         <f t="shared" ref="S18:S20" si="2">SUM(F18:R18)</f>
         <v>2678</v>
       </c>
@@ -2615,24 +2615,24 @@
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <v>285</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="26">
+      <c r="H19" s="17">
         <v>1399</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="26"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="26">
+      <c r="L19" s="17">
         <f>'Keuze extralegale voordelen'!$F$33*12</f>
         <v>240</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="9">
+      <c r="S19" s="7">
         <f t="shared" si="2"/>
         <v>1924</v>
       </c>
@@ -2653,26 +2653,26 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>879</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="26">
+      <c r="H20" s="17">
         <v>2499</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="26">
+      <c r="J20" s="17">
         <v>549</v>
       </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="26">
+      <c r="L20" s="17">
         <f>'Keuze extralegale voordelen'!$F$33*12</f>
         <v>240</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="9">
+      <c r="S20" s="7">
         <f t="shared" si="2"/>
         <v>4167</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="X20" s="4"/>
     </row>
     <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2719,45 +2719,45 @@
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="12" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="R22" s="12"/>
-      <c r="S22" s="13">
+      <c r="R22" s="10"/>
+      <c r="S22" s="11">
         <f>SUM(S17:S20)</f>
         <v>11646</v>
       </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
     </row>
     <row r="23" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="4"/>
@@ -2780,7 +2780,7 @@
       <c r="X23" s="4"/>
     </row>
     <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2798,22 +2798,22 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="36" t="s">
+      <c r="S24" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="T24" s="36"/>
+      <c r="T24" s="50"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
     </row>
     <row r="25" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
         <v>41</v>
@@ -2834,18 +2834,18 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
     </row>
     <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2860,41 +2860,41 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
     </row>
     <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="26">
+      <c r="F27" s="17">
         <v>259</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="26">
+      <c r="H27" s="17">
         <v>239</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="26">
+      <c r="J27" s="17">
         <v>458</v>
       </c>
       <c r="K27" s="4"/>
-      <c r="L27" s="26"/>
+      <c r="L27" s="17"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="26"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="26"/>
+      <c r="P27" s="17"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="9">
+      <c r="R27" s="17"/>
+      <c r="S27" s="7">
         <f>SUM(F27:R27)</f>
         <v>956</v>
       </c>
@@ -2905,33 +2905,33 @@
       <c r="X27" s="4"/>
     </row>
     <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="26">
+      <c r="F28" s="17">
         <v>259</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="26">
+      <c r="H28" s="17">
         <v>293</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="26">
+      <c r="J28" s="17">
         <v>548</v>
       </c>
       <c r="K28" s="4"/>
-      <c r="L28" s="26"/>
+      <c r="L28" s="17"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="26"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="26"/>
+      <c r="P28" s="17"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="9">
+      <c r="R28" s="17"/>
+      <c r="S28" s="7">
         <f>SUM(F28:R28)</f>
         <v>1100</v>
       </c>
@@ -2942,33 +2942,33 @@
       <c r="X28" s="4"/>
     </row>
     <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="26">
+      <c r="F29" s="17">
         <v>259</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="26">
+      <c r="H29" s="17">
         <v>293</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="26">
+      <c r="J29" s="17">
         <v>864</v>
       </c>
       <c r="K29" s="4"/>
-      <c r="L29" s="26"/>
+      <c r="L29" s="17"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="26"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="26"/>
+      <c r="P29" s="17"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="9">
+      <c r="R29" s="17"/>
+      <c r="S29" s="7">
         <f>SUM(F29:R29)</f>
         <v>1416</v>
       </c>
@@ -2979,33 +2979,33 @@
       <c r="X29" s="4"/>
     </row>
     <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="26">
+      <c r="F30" s="17">
         <v>259</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="26">
+      <c r="H30" s="17">
         <v>293</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="26">
+      <c r="J30" s="17">
         <v>756</v>
       </c>
       <c r="K30" s="4"/>
-      <c r="L30" s="26"/>
+      <c r="L30" s="17"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="26"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="26"/>
+      <c r="P30" s="17"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="9">
+      <c r="R30" s="17"/>
+      <c r="S30" s="7">
         <f>SUM(F30:R30)</f>
         <v>1308</v>
       </c>
@@ -3016,29 +3016,29 @@
       <c r="X30" s="4"/>
     </row>
     <row r="31" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="26">
+      <c r="F31" s="17">
         <v>439</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="26"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="26"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="26"/>
+      <c r="L31" s="17"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="26"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="26"/>
+      <c r="P31" s="17"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="9"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="7"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -3046,38 +3046,38 @@
       <c r="X31" s="4"/>
     </row>
     <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="12" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="R32" s="12"/>
-      <c r="S32" s="13">
+      <c r="R32" s="10"/>
+      <c r="S32" s="11">
         <f>SUM(S27:S30)+F31</f>
         <v>5219</v>
       </c>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
     </row>
     <row r="33" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="4"/>
@@ -3093,7 +3093,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="9"/>
+      <c r="O33" s="7"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -3105,7 +3105,7 @@
       <c r="X33" s="4"/>
     </row>
     <row r="34" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3131,13 +3131,13 @@
       <c r="X34" s="4"/>
     </row>
     <row r="35" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="4" t="s">
         <v>58</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="26">
+      <c r="L35" s="17">
         <v>348</v>
       </c>
       <c r="M35" s="4"/>
@@ -3163,11 +3163,11 @@
       <c r="X35" s="4"/>
     </row>
     <row r="36" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3189,11 +3189,11 @@
       <c r="X36" s="4"/>
     </row>
     <row r="37" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3217,572 +3217,574 @@
       <c r="X37" s="4"/>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="12" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="R38" s="11"/>
-      <c r="S38" s="13">
+      <c r="R38" s="9"/>
+      <c r="S38" s="11">
         <f>L35</f>
         <v>348</v>
       </c>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
     </row>
     <row r="39" spans="1:24" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
     </row>
     <row r="40" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43" t="s">
+      <c r="A40" s="48"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="48" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="T40" s="48"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
     </row>
     <row r="41" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
     </row>
     <row r="42" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42" t="s">
+      <c r="A42" s="48"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="49">
+      <c r="G42" s="24"/>
+      <c r="H42" s="26">
         <v>0.1</v>
       </c>
-      <c r="I42" s="42" t="s">
+      <c r="I42" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42">
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24">
         <v>50000</v>
       </c>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="50">
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="27">
         <f>L42*H42</f>
         <v>5000</v>
       </c>
-      <c r="T42" s="51"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
     </row>
     <row r="43" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42" t="s">
+      <c r="A43" s="48"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="49">
+      <c r="G43" s="24"/>
+      <c r="H43" s="26">
         <v>7.5</v>
       </c>
-      <c r="I43" s="42" t="s">
+      <c r="I43" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42">
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24">
         <v>365</v>
       </c>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="50">
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="27">
         <f>L43*H43</f>
         <v>2737.5</v>
       </c>
-      <c r="T43" s="51"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
     </row>
     <row r="44" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42" t="s">
+      <c r="A44" s="48"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="52">
+      <c r="G44" s="24"/>
+      <c r="H44" s="29">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="I44" s="42" t="s">
+      <c r="I44" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42">
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24">
         <v>75000</v>
       </c>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="50">
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="27">
         <f>L44*H44</f>
         <v>1387.5</v>
       </c>
-      <c r="T44" s="51"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
     </row>
     <row r="45" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42" t="s">
+      <c r="A45" s="48"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G45" s="42"/>
-      <c r="H45" s="52">
+      <c r="G45" s="24"/>
+      <c r="H45" s="29">
         <v>1.95E-2</v>
       </c>
-      <c r="I45" s="42" t="s">
+      <c r="I45" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42">
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24">
         <v>50000</v>
       </c>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="50">
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="27">
         <f>L45*H45</f>
         <v>975</v>
       </c>
-      <c r="T45" s="51"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
     </row>
     <row r="46" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42" t="s">
+      <c r="A46" s="48"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42" t="s">
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="G46" s="42"/>
-      <c r="H46" s="49">
+      <c r="G46" s="24"/>
+      <c r="H46" s="26">
         <v>0.5</v>
       </c>
-      <c r="I46" s="42" t="s">
+      <c r="I46" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42">
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24">
         <v>5000</v>
       </c>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="50">
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="27">
         <f>L46*H46</f>
         <v>2500</v>
       </c>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
     </row>
     <row r="47" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42" t="s">
+      <c r="A47" s="48"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="50">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="27">
         <v>500</v>
       </c>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
     </row>
     <row r="48" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="45"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="46"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="12" t="s">
+      <c r="A49" s="49"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="R49" s="11"/>
-      <c r="S49" s="13">
+      <c r="R49" s="9"/>
+      <c r="S49" s="11">
         <f>SUM(S42:S47)</f>
         <v>13100</v>
       </c>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
     </row>
     <row r="51" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="31"/>
     </row>
     <row r="52" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="56" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="57">
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="46">
         <f>SUM(S38,S32,S22,S12,S49)</f>
         <v>157713</v>
       </c>
-      <c r="T52" s="57"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="31"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="31"/>
     </row>
     <row r="53" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="31"/>
     </row>
     <row r="54" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="31"/>
     </row>
     <row r="55" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="55"/>
-      <c r="W55" s="55"/>
-      <c r="X55" s="55"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="A50:C55"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="A39:A49"/>
+    <mergeCell ref="A1:X2"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="S14:T16"/>
     <mergeCell ref="A23:A32"/>
     <mergeCell ref="C28:D28"/>
@@ -3797,13 +3799,11 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:X2"/>
-    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="A50:C55"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="A39:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3820,73 +3820,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="8.88671875" style="14"/>
     <col min="3" max="3" width="33.109375" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="63" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="19"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -3906,12 +3906,12 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
         <v>20</v>
@@ -3939,10 +3939,10 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -3964,16 +3964,16 @@
       <c r="W5" s="4"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="24">
+      <c r="A6" s="63"/>
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="26">
+      <c r="F6" s="17">
         <v>879</v>
       </c>
       <c r="G6" s="4"/>
@@ -3999,16 +3999,16 @@
       <c r="W6" s="4"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="24">
+      <c r="A7" s="63"/>
+      <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="26">
+      <c r="F7" s="17">
         <v>299</v>
       </c>
       <c r="G7" s="4"/>
@@ -4034,16 +4034,16 @@
       <c r="W7" s="4"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="24">
+      <c r="A8" s="63"/>
+      <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="26">
+      <c r="F8" s="17">
         <v>285</v>
       </c>
       <c r="G8" s="4"/>
@@ -4069,16 +4069,16 @@
       <c r="W8" s="4"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="24">
+      <c r="A9" s="63"/>
+      <c r="B9" s="15">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="26">
+      <c r="F9" s="17">
         <v>739</v>
       </c>
       <c r="G9" s="4"/>
@@ -4104,39 +4104,39 @@
       <c r="W9" s="4"/>
     </row>
     <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -4156,14 +4156,14 @@
       <c r="W11" s="4"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="5"/>
@@ -4189,12 +4189,12 @@
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -4214,16 +4214,16 @@
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24">
+      <c r="A14" s="63"/>
+      <c r="B14" s="15">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="26">
+      <c r="F14" s="17">
         <v>1699</v>
       </c>
       <c r="G14" s="4"/>
@@ -4249,16 +4249,16 @@
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="24">
+      <c r="A15" s="63"/>
+      <c r="B15" s="15">
         <v>2</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="26">
+      <c r="F15" s="17">
         <v>1299</v>
       </c>
       <c r="G15" s="4"/>
@@ -4284,16 +4284,16 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="24">
+      <c r="A16" s="63"/>
+      <c r="B16" s="15">
         <v>3</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="26">
+      <c r="F16" s="17">
         <v>1399</v>
       </c>
       <c r="G16" s="4"/>
@@ -4319,16 +4319,16 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="24">
+      <c r="A17" s="63"/>
+      <c r="B17" s="15">
         <v>4</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="26">
+      <c r="F17" s="17">
         <v>2449</v>
       </c>
       <c r="G17" s="4"/>
@@ -4354,16 +4354,16 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="24">
+      <c r="A18" s="63"/>
+      <c r="B18" s="15">
         <v>5</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="26">
+      <c r="F18" s="17">
         <v>1799</v>
       </c>
       <c r="G18" s="4"/>
@@ -4389,16 +4389,16 @@
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="24">
+      <c r="A19" s="63"/>
+      <c r="B19" s="15">
         <v>6</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="26">
+      <c r="F19" s="17">
         <v>1199</v>
       </c>
       <c r="G19" s="4"/>
@@ -4424,39 +4424,39 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="62" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -4476,14 +4476,14 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="5"/>
@@ -4509,12 +4509,12 @@
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -4534,16 +4534,16 @@
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="24">
+      <c r="A24" s="63"/>
+      <c r="B24" s="15">
         <v>1</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="26">
+      <c r="F24" s="17">
         <v>549</v>
       </c>
       <c r="G24" s="4"/>
@@ -4569,16 +4569,16 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="24">
+      <c r="A25" s="63"/>
+      <c r="B25" s="15">
         <v>2</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="26">
+      <c r="F25" s="17">
         <v>539</v>
       </c>
       <c r="G25" s="4"/>
@@ -4604,16 +4604,16 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="24">
+      <c r="A26" s="63"/>
+      <c r="B26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="26">
+      <c r="F26" s="17">
         <v>399</v>
       </c>
       <c r="G26" s="4"/>
@@ -4639,12 +4639,12 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="26"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -4664,12 +4664,12 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="26"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -4689,39 +4689,39 @@
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="62" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -4741,12 +4741,12 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="18" t="s">
         <v>81</v>
       </c>
       <c r="G31" s="5"/>
@@ -4770,12 +4770,12 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -4795,16 +4795,16 @@
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="24">
+      <c r="A33" s="63"/>
+      <c r="B33" s="15">
         <v>1</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="26">
+      <c r="F33" s="17">
         <v>20</v>
       </c>
       <c r="G33" s="4"/>
@@ -4828,12 +4828,12 @@
       <c r="W33" s="4"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="8"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="26"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -4853,12 +4853,12 @@
       <c r="W34" s="4"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="26"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -4878,12 +4878,12 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="26"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -4903,12 +4903,12 @@
       <c r="W36" s="4"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="26"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -4928,33 +4928,49 @@
       <c r="W37" s="4"/>
     </row>
     <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="21"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
     </row>
     <row r="39" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A1:W2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="A30:A38"/>
@@ -4966,22 +4982,6 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A1:W2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4998,94 +4998,94 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
     </row>
     <row r="2" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="63" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -5106,12 +5106,12 @@
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5"/>
@@ -5138,12 +5138,12 @@
       <c r="X5" s="4"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -5164,16 +5164,16 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="24">
+      <c r="A7" s="63"/>
+      <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="26">
+      <c r="F7" s="17">
         <v>249</v>
       </c>
       <c r="G7" s="4"/>
@@ -5200,16 +5200,16 @@
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="24">
+      <c r="A8" s="63"/>
+      <c r="B8" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="26">
+      <c r="F8" s="17">
         <v>44</v>
       </c>
       <c r="G8" s="4"/>
@@ -5236,16 +5236,16 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="24">
+      <c r="A9" s="63"/>
+      <c r="B9" s="15">
         <v>3</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="26">
+      <c r="F9" s="17">
         <v>439</v>
       </c>
       <c r="G9" s="4"/>
@@ -5272,12 +5272,12 @@
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -5298,30 +5298,30 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
@@ -5331,12 +5331,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:X3"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5361,68 +5361,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
     </row>
     <row r="3" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="51" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="19"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -5443,7 +5443,7 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -5469,12 +5469,12 @@
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>90</v>
@@ -5493,7 +5493,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="61" t="s">
+      <c r="S5" s="34" t="s">
         <v>89</v>
       </c>
       <c r="T5" s="5"/>
@@ -5503,10 +5503,10 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -5529,31 +5529,31 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="62">
+      <c r="F7" s="35">
         <v>7500</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="26">
+      <c r="J7" s="17">
         <v>2.4300000000000002</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="26"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="9">
+      <c r="S7" s="7">
         <f>J7*F7</f>
         <v>18225</v>
       </c>
@@ -5564,12 +5564,12 @@
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -5577,12 +5577,12 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="26"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="9"/>
+      <c r="S8" s="7"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
@@ -5590,12 +5590,12 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="26"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -5603,12 +5603,12 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="26"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="9"/>
+      <c r="S9" s="7"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -5616,12 +5616,12 @@
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="36" t="s">
         <v>94</v>
       </c>
       <c r="G10" s="4"/>
@@ -5633,14 +5633,14 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="26"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="5" t="s">
         <v>95</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -5648,12 +5648,12 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="26"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5661,12 +5661,12 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="9"/>
+      <c r="S11" s="7"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -5674,34 +5674,34 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="62">
+      <c r="F12" s="35">
         <v>26750</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <f>45*12</f>
         <v>540</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>3</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="9">
+      <c r="S12" s="7">
         <f>F12*J12*O12/1000</f>
         <v>43335</v>
       </c>
@@ -5712,12 +5712,12 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -5725,12 +5725,12 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="26"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="9"/>
+      <c r="S13" s="7"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
@@ -5738,12 +5738,12 @@
       <c r="X13" s="4"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="26"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -5751,12 +5751,12 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="26"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -5764,7 +5764,7 @@
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5790,198 +5790,198 @@
       <c r="X15" s="4"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="12" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="13">
+      <c r="R16" s="10"/>
+      <c r="S16" s="11">
         <f>SUM(S7:S14)</f>
         <v>61560</v>
       </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="56" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="57">
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="46">
         <f>S16</f>
         <v>61560</v>
       </c>
-      <c r="T19" s="57"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
     </row>
     <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6004,8 +6004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6021,68 +6021,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="51" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="19"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -6103,7 +6103,7 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -6129,12 +6129,12 @@
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="64"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -6149,7 +6149,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="61" t="s">
+      <c r="S5" s="34" t="s">
         <v>107</v>
       </c>
       <c r="T5" s="5"/>
@@ -6159,10 +6159,10 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -6185,27 +6185,27 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="62"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="26"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="26"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="9">
+      <c r="S7" s="7">
         <f>Kostenberekening!S12*3</f>
         <v>382200</v>
       </c>
@@ -6216,12 +6216,12 @@
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -6229,12 +6229,12 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="26"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="9"/>
+      <c r="S8" s="7"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
@@ -6242,14 +6242,14 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="26"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -6257,12 +6257,12 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="26"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="9">
+      <c r="S9" s="7">
         <f>Kostenberekening!S22</f>
         <v>11646</v>
       </c>
@@ -6273,12 +6273,12 @@
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="63"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -6286,12 +6286,12 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="26"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="5"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -6299,14 +6299,14 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="26"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -6314,12 +6314,12 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="9">
+      <c r="S11" s="7">
         <f>Kostenberekening!S32</f>
         <v>5219</v>
       </c>
@@ -6330,25 +6330,25 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="62"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="9"/>
+      <c r="S12" s="7"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -6356,14 +6356,14 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -6371,12 +6371,12 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="26"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="9">
+      <c r="S13" s="7">
         <f>Kostenberekening!S38</f>
         <v>348</v>
       </c>
@@ -6387,12 +6387,12 @@
       <c r="X13" s="4"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="26"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -6400,12 +6400,12 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="26"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -6413,14 +6413,14 @@
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="26"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -6428,12 +6428,12 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="26"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="9">
+      <c r="S15" s="7">
         <f>Kostenberekening!S49</f>
         <v>13100</v>
       </c>
@@ -6444,7 +6444,7 @@
       <c r="X15" s="4"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -6470,45 +6470,45 @@
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="12" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="13">
+      <c r="R17" s="10"/>
+      <c r="S17" s="11">
         <f>SUM(S7:S15)</f>
         <v>412513</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="51" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -6529,7 +6529,7 @@
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -6555,12 +6555,12 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
         <v>90</v>
@@ -6579,7 +6579,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="61" t="s">
+      <c r="S20" s="34" t="s">
         <v>89</v>
       </c>
       <c r="T20" s="5"/>
@@ -6589,10 +6589,10 @@
       <c r="X20" s="5"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -6615,31 +6615,31 @@
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="62">
+      <c r="F22" s="35">
         <v>15250</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="26">
+      <c r="J22" s="17">
         <v>2.4300000000000002</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="26"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="9">
+      <c r="S22" s="7">
         <f>J22*F22</f>
         <v>37057.5</v>
       </c>
@@ -6650,12 +6650,12 @@
       <c r="X22" s="4"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="26"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -6663,12 +6663,12 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="26"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="9"/>
+      <c r="S23" s="7"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -6676,12 +6676,12 @@
       <c r="X23" s="4"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="26"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -6689,12 +6689,12 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="26"/>
+      <c r="N24" s="17"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="7"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
@@ -6702,12 +6702,12 @@
       <c r="X24" s="4"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="36" t="s">
         <v>94</v>
       </c>
       <c r="G25" s="4"/>
@@ -6719,14 +6719,14 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="26"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="5" t="s">
         <v>95</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="9"/>
+      <c r="S25" s="7"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -6734,12 +6734,12 @@
       <c r="X25" s="4"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="26"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -6747,12 +6747,12 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="9"/>
+      <c r="S26" s="7"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -6760,33 +6760,33 @@
       <c r="X26" s="4"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="62">
+      <c r="F27" s="35">
         <v>25750</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>1576</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26">
+      <c r="N27" s="17"/>
+      <c r="O27" s="17">
         <v>3</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="9">
+      <c r="S27" s="7">
         <f>F27*J27*O27/1000</f>
         <v>121746</v>
       </c>
@@ -6797,12 +6797,12 @@
       <c r="X27" s="4"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="26"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -6810,12 +6810,12 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="26"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="9"/>
+      <c r="S28" s="7"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -6823,12 +6823,12 @@
       <c r="X28" s="4"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="26"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -6836,12 +6836,12 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="26"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="9"/>
+      <c r="S29" s="7"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
@@ -6849,7 +6849,7 @@
       <c r="X29" s="4"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -6875,287 +6875,290 @@
       <c r="X30" s="4"/>
     </row>
     <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="40"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="12" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="R31" s="12"/>
-      <c r="S31" s="13">
+      <c r="R31" s="10"/>
+      <c r="S31" s="11">
         <f>SUM(S22:S29)</f>
         <v>158803.5</v>
       </c>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
     </row>
     <row r="32" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D34" s="66">
+      <c r="D34" s="39">
         <f>$S$31</f>
         <v>158803.5</v>
       </c>
-      <c r="E34" s="66">
+      <c r="E34" s="39">
         <f>$S$17</f>
         <v>412513</v>
       </c>
-      <c r="F34" s="66">
+      <c r="F34" s="39">
         <f>D34-E34</f>
         <v>-253709.5</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D35" s="66">
+      <c r="D35" s="39">
         <f>D34+$S$31</f>
         <v>317607</v>
       </c>
-      <c r="E35" s="66">
+      <c r="E35" s="39">
         <f t="shared" ref="E35:E39" si="0">$S$17</f>
         <v>412513</v>
       </c>
-      <c r="F35" s="66">
+      <c r="F35" s="39">
         <f t="shared" ref="F35:F39" si="1">D35-E35</f>
         <v>-94906</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D36" s="66">
+      <c r="D36" s="39">
         <f t="shared" ref="D36:D39" si="2">D35+$S$31</f>
         <v>476410.5</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="39">
         <f t="shared" si="0"/>
         <v>412513</v>
       </c>
-      <c r="F36" s="66">
+      <c r="F36" s="39">
         <f t="shared" si="1"/>
         <v>63897.5</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D37" s="66">
+      <c r="D37" s="39">
         <f t="shared" si="2"/>
         <v>635214</v>
       </c>
-      <c r="E37" s="66">
+      <c r="E37" s="39">
         <f t="shared" si="0"/>
         <v>412513</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="39">
         <f t="shared" si="1"/>
         <v>222701</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D38" s="66">
+      <c r="D38" s="39">
         <f t="shared" si="2"/>
         <v>794017.5</v>
       </c>
-      <c r="E38" s="66">
+      <c r="E38" s="39">
         <f t="shared" si="0"/>
         <v>412513</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="39">
         <f t="shared" si="1"/>
         <v>381504.5</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D39" s="66">
+      <c r="D39" s="39">
         <f t="shared" si="2"/>
         <v>952821</v>
       </c>
-      <c r="E39" s="66">
+      <c r="E39" s="39">
         <f t="shared" si="0"/>
         <v>412513</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="39">
         <f t="shared" si="1"/>
         <v>540308</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="56" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="57">
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="46">
         <f>S17</f>
         <v>412513</v>
       </c>
-      <c r="T46" s="57"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
     </row>
     <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:X2"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A44:C49"/>
     <mergeCell ref="S46:T46"/>
     <mergeCell ref="A18:A31"/>
@@ -7165,9 +7168,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A1:X2"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
